--- a/net.akehurst.language.comparisons/results/results.xlsx
+++ b/net.akehurst.language.comparisons/results/results.xlsx
@@ -508,13 +508,517 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1473">
+  <fonts count="1585">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -7161,7 +7665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1473">
+  <cellXfs count="1585">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8634,6 +9138,118 @@
     <xf numFmtId="0" fontId="1470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1488" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1494" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1500" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1506" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1518" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1520" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1522" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1524" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1526" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1528" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1530" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1532" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1534" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1536" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1538" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1540" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1542" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1544" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1546" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1548" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1550" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1552" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1554" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1556" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1558" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1560" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1562" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1564" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1566" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1568" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1570" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1572" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1574" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1576" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1578" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1580" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1582" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1584" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
@@ -8665,262 +9281,262 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="954">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n" s="956">
+      <c r="B2" t="n" s="1474">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="1476">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>69.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="960">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n" s="962">
-        <v>1.0</v>
+      <c r="B3" t="n" s="1480">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="1482">
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>921.0</v>
+        <v>761.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n" s="966">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n" s="968">
+      <c r="B4" t="n" s="1486">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n" s="1488">
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n" s="972">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n" s="974">
+      <c r="B5" t="n" s="1492">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="1494">
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>8741.0</v>
+        <v>9019.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n" s="978">
-        <v>0.0</v>
-      </c>
-      <c r="C6" t="n" s="980">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n" s="982">
-        <v>6219.0</v>
+      <c r="B6" t="n" s="1498">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n" s="1500">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n" s="1502">
+        <v>6304.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n" s="984">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n" s="986">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n" s="988">
-        <v>1249.0</v>
+      <c r="B7" t="n" s="1504">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n" s="1506">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n" s="1508">
+        <v>1243.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n" s="990">
-        <v>0.0</v>
-      </c>
-      <c r="C8" t="n" s="992">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n" s="994">
-        <v>1481.0</v>
+      <c r="B8" t="n" s="1510">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n" s="1512">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="1514">
+        <v>1066.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="n" s="996">
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n" s="998">
+      <c r="B9" t="n" s="1516">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n" s="1518">
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5497.0</v>
+        <v>5457.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="n" s="1002">
-        <v>0.0</v>
-      </c>
-      <c r="C10" t="n" s="1004">
+      <c r="B10" t="n" s="1522">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n" s="1524">
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1612.0</v>
+        <v>1609.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="n" s="1008">
-        <v>0.0</v>
-      </c>
-      <c r="C11" t="n" s="1010">
+      <c r="B11" t="n" s="1528">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n" s="1530">
         <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>104.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="n" s="1014">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="n" s="1016">
+      <c r="B12" t="n" s="1534">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n" s="1536">
         <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="n" s="1020">
-        <v>0.0</v>
-      </c>
-      <c r="C13" t="n" s="1022">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n" s="1024">
-        <v>3893.0</v>
+      <c r="B13" t="n" s="1540">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n" s="1542">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n" s="1544">
+        <v>3875.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="n" s="1026">
-        <v>0.0</v>
-      </c>
-      <c r="C14" t="n" s="1028">
+      <c r="B14" t="n" s="1546">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n" s="1548">
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>162.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="1032">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="n" s="1034">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n" s="1036">
-        <v>2929.0</v>
+      <c r="B15" t="n" s="1552">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n" s="1554">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n" s="1556">
+        <v>2857.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="n" s="1038">
-        <v>0.0</v>
-      </c>
-      <c r="C16" t="n" s="1040">
+      <c r="B16" t="n" s="1558">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n" s="1560">
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>883.0</v>
+        <v>871.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="n" s="1044">
-        <v>0.0</v>
-      </c>
-      <c r="C17" t="n" s="1046">
+      <c r="B17" t="n" s="1564">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n" s="1566">
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="n" s="1050">
-        <v>0.0</v>
-      </c>
-      <c r="C18" t="n" s="1052">
+      <c r="B18" t="n" s="1570">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="n" s="1572">
         <v>0.0</v>
       </c>
       <c r="D18" t="n" s="1054">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="n" s="1056">
-        <v>0.0</v>
-      </c>
-      <c r="C19" t="n" s="1058">
+      <c r="B19" t="n" s="1576">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n" s="1578">
         <v>0.0</v>
       </c>
       <c r="D19" t="n" s="1060">
-        <v>14235.0</v>
+        <v>32361.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="n" s="1062">
-        <v>0.0</v>
-      </c>
-      <c r="C20" t="n" s="1064">
+      <c r="B20" t="n" s="1582">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="n" s="1584">
         <v>0.0</v>
       </c>
       <c r="D20" t="n" s="1066">

--- a/net.akehurst.language.comparisons/results/results.xlsx
+++ b/net.akehurst.language.comparisons/results/results.xlsx
@@ -508,13 +508,805 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1585">
+  <fonts count="1761">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -7665,7 +8457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1585">
+  <cellXfs count="1761">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9250,6 +10042,182 @@
     <xf numFmtId="0" fontId="1582" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1584" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1586" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1588" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1590" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1592" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1594" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1596" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1598" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1600" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1602" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1604" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1606" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1608" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1610" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1612" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1614" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1616" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1618" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1620" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1622" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1624" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1626" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1628" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1630" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1632" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1634" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1636" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1638" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1640" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1642" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1644" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1646" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1648" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1650" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1652" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1654" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1656" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1658" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1660" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1662" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1664" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1666" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1668" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1670" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1672" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1674" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1676" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1678" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1680" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1682" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1684" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1686" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1688" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1690" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1692" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1694" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1696" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1698" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1700" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1702" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1704" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1706" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1708" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1710" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1712" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1714" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1716" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1718" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1720" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1722" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1724" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1726" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1728" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1730" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1732" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1734" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1736" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1738" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1740" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1742" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1744" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1746" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1748" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1750" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1752" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1754" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1756" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1758" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1760" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
@@ -9281,220 +10249,220 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="1474">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n" s="1476">
+      <c r="B2" t="n" s="1692">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="1588">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="1480">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n" s="1482">
+      <c r="B3" t="n" s="1694">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="1594">
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>761.0</v>
+        <v>856.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n" s="1486">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n" s="1488">
-        <v>0.0</v>
+      <c r="B4" t="n" s="1696">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n" s="1600">
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n" s="1492">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n" s="1494">
+      <c r="B5" t="n" s="1698">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="1606">
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>9019.0</v>
+        <v>9254.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n" s="1498">
-        <v>0.0</v>
-      </c>
-      <c r="C6" t="n" s="1500">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n" s="1502">
-        <v>6304.0</v>
+      <c r="B6" t="n" s="1700">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="1612">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n" s="1614">
+        <v>6399.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n" s="1504">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n" s="1506">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n" s="1508">
-        <v>1243.0</v>
+      <c r="B7" t="n" s="1702">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n" s="1618">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n" s="1620">
+        <v>1273.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n" s="1510">
-        <v>0.0</v>
-      </c>
-      <c r="C8" t="n" s="1512">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n" s="1514">
-        <v>1066.0</v>
+      <c r="B8" t="n" s="1704">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n" s="1624">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="1626">
+        <v>1128.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="n" s="1516">
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n" s="1518">
+      <c r="B9" t="n" s="1706">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n" s="1630">
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5457.0</v>
+        <v>5640.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="n" s="1522">
-        <v>1.0</v>
-      </c>
-      <c r="C10" t="n" s="1524">
+      <c r="B10" t="n" s="1708">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n" s="1636">
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1609.0</v>
+        <v>1673.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="n" s="1528">
-        <v>0.0</v>
-      </c>
-      <c r="C11" t="n" s="1530">
+      <c r="B11" t="n" s="1710">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n" s="1642">
         <v>0.0</v>
       </c>
       <c r="D11" t="n">
-        <v>96.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="n" s="1534">
-        <v>0.0</v>
-      </c>
-      <c r="C12" t="n" s="1536">
+      <c r="B12" t="n" s="1712">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n" s="1648">
         <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="n" s="1540">
-        <v>0.0</v>
-      </c>
-      <c r="C13" t="n" s="1542">
-        <v>0.0</v>
-      </c>
-      <c r="D13" t="n" s="1544">
-        <v>3875.0</v>
+      <c r="B13" t="n" s="1714">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n" s="1654">
+        <v>0.0</v>
+      </c>
+      <c r="D13" t="n" s="1656">
+        <v>3940.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="n" s="1546">
-        <v>0.0</v>
-      </c>
-      <c r="C14" t="n" s="1548">
+      <c r="B14" t="n" s="1716">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n" s="1660">
         <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>147.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="n" s="1552">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="n" s="1554">
-        <v>0.0</v>
-      </c>
-      <c r="D15" t="n" s="1556">
-        <v>2857.0</v>
+      <c r="B15" t="n" s="1718">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="n" s="1666">
+        <v>0.0</v>
+      </c>
+      <c r="D15" t="n" s="1668">
+        <v>3003.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="n" s="1558">
-        <v>0.0</v>
-      </c>
-      <c r="C16" t="n" s="1560">
+      <c r="B16" t="n" s="1720">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n" s="1672">
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>871.0</v>
+        <v>917.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="n" s="1564">
-        <v>0.0</v>
-      </c>
-      <c r="C17" t="n" s="1566">
+      <c r="B17" t="n" s="1722">
+        <v>0.0</v>
+      </c>
+      <c r="C17" t="n" s="1678">
         <v>0.0</v>
       </c>
       <c r="D17" t="n">
@@ -9505,24 +10473,24 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="n" s="1570">
-        <v>1.0</v>
-      </c>
-      <c r="C18" t="n" s="1572">
+      <c r="B18" t="n" s="1724">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="1684">
         <v>0.0</v>
       </c>
       <c r="D18" t="n" s="1054">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="n" s="1576">
-        <v>0.0</v>
-      </c>
-      <c r="C19" t="n" s="1578">
+      <c r="B19" t="n" s="1726">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n" s="1690">
         <v>0.0</v>
       </c>
       <c r="D19" t="n" s="1060">
@@ -9533,7 +10501,7 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="n" s="1582">
+      <c r="B20" t="n" s="1728">
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="1584">
@@ -9547,7 +10515,7 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="n" s="1068">
+      <c r="B21" t="n" s="1730">
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="1070">
@@ -9561,7 +10529,7 @@
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="n" s="1074">
+      <c r="B22" t="n" s="1732">
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="1076">
@@ -9575,7 +10543,7 @@
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="n" s="1080">
+      <c r="B23" t="n" s="1734">
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="1082">
@@ -9589,7 +10557,7 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="n" s="1086">
+      <c r="B24" t="n" s="1736">
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="1088">
@@ -9603,7 +10571,7 @@
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="n" s="1092">
+      <c r="B25" t="n" s="1738">
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="1094">
@@ -9617,7 +10585,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="n" s="1098">
+      <c r="B26" t="n" s="1740">
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="1100">
@@ -9631,7 +10599,7 @@
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="n" s="1104">
+      <c r="B27" t="n" s="1742">
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="1106">
@@ -9645,7 +10613,7 @@
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="n" s="1110">
+      <c r="B28" t="n" s="1744">
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="1112">
@@ -9659,7 +10627,7 @@
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="n" s="1116">
+      <c r="B29" t="n" s="1746">
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="1118">
@@ -9673,7 +10641,7 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="n" s="1122">
+      <c r="B30" t="n" s="1748">
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="1124">
@@ -9687,7 +10655,7 @@
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="n" s="1128">
+      <c r="B31" t="n" s="1750">
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="1130">
@@ -9701,7 +10669,7 @@
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="n" s="1134">
+      <c r="B32" t="n" s="1752">
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="1136">
@@ -9715,7 +10683,7 @@
       <c r="A33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="n" s="1140">
+      <c r="B33" t="n" s="1754">
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="1142">
@@ -9729,7 +10697,7 @@
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="n" s="1146">
+      <c r="B34" t="n" s="1756">
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="1148">
@@ -9743,7 +10711,7 @@
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="n" s="1152">
+      <c r="B35" t="n" s="1758">
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="1154">
@@ -9757,7 +10725,7 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="n" s="1158">
+      <c r="B36" t="n" s="1760">
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="1160">

--- a/net.akehurst.language.comparisons/results/results.xlsx
+++ b/net.akehurst.language.comparisons/results/results.xlsx
@@ -508,13 +508,220 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1761">
+  <fonts count="1807">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -8457,7 +8664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1761">
+  <cellXfs count="1807">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10218,6 +10425,52 @@
     <xf numFmtId="0" fontId="1758" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1760" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1762" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1764" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1766" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1768" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1770" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1772" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1774" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1776" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1778" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1780" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1782" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1784" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1786" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1788" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1790" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1792" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1794" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1796" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1798" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1800" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1802" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1804" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1806" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
@@ -10249,108 +10502,108 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="1692">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n" s="1588">
+      <c r="B2" t="n" s="1762">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="1764">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="1694">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n" s="1594">
+      <c r="B3" t="n" s="1768">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="1770">
         <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>856.0</v>
+        <v>966.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n" s="1696">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n" s="1600">
-        <v>1.0</v>
+      <c r="B4" t="n" s="1774">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n" s="1776">
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n" s="1698">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n" s="1606">
+      <c r="B5" t="n" s="1780">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="1782">
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>9254.0</v>
+        <v>9509.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n" s="1700">
+      <c r="B6" t="n" s="1786">
         <v>1.0</v>
       </c>
-      <c r="C6" t="n" s="1612">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n" s="1614">
-        <v>6399.0</v>
+      <c r="C6" t="n" s="1788">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n" s="1790">
+        <v>6548.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n" s="1702">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n" s="1618">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n" s="1620">
-        <v>1273.0</v>
+      <c r="B7" t="n" s="1792">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n" s="1794">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n" s="1796">
+        <v>1283.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n" s="1704">
-        <v>0.0</v>
-      </c>
-      <c r="C8" t="n" s="1624">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n" s="1626">
-        <v>1128.0</v>
+      <c r="B8" t="n" s="1798">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n" s="1800">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="1802">
+        <v>1104.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="n" s="1706">
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n" s="1630">
+      <c r="B9" t="n" s="1804">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n" s="1806">
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
